--- a/ParaBank-selenium automation with python.xlsx
+++ b/ParaBank-selenium automation with python.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Expected Result</t>
   </si>
@@ -136,62 +136,67 @@
 19. Close browser</t>
   </si>
   <si>
-    <t>Filled Up all the field without "Last Name" input Field and click on Register</t>
-  </si>
-  <si>
     <t>Keep "First Name" field as blank &amp; FillUp rest of the required field and click on Register</t>
+  </si>
+  <si>
+    <t>Set numeric value in First Name &amp; Last Name fields and rest of the fields filled with  valid credential after that click on register</t>
+  </si>
+  <si>
+    <t>Enter alphabet as Social Security Number (SSN) and filled all the required field with valid credentials and click on Register</t>
+  </si>
+  <si>
+    <t>1. Open Web Browser(Chrome)
+2. Launch URL (https://parabank.parasoft.com/)    
+3. Click on Register Link                                                        4. Capture and verify</t>
+  </si>
+  <si>
+    <t>Filled Up all the fields without "Last Name" Field and click on Register</t>
   </si>
   <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
-4. Enter First Name (Test)                                                  5. Keep "First Name" field as empty                                                  6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678910" as Phone number                      11. Enter SSN (1234)                                                               12. Enter UserName (Test)                                                   13. Enter Testtest12@# as password                               15. Pass same pasword in Confirm 
+4. Enter First Name (Test)                                                  5. Keep "last Name" field as empty                                                  6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678910" as Phone number                      11. Enter SSN (1234)                                                               12. Enter UserName (Test)                                                   13. Enter Testtest12@# as password                               15. Pass same pasword in Confirm 
 16. Click on REGISTER button
 17. Capture the requied field message's
 18. Verify the required messages
 19. Close browser</t>
   </si>
   <si>
-    <t>Set numeric value in First Name &amp; Last Name fields and rest of the fields filled with  valid credential after that click on register</t>
-  </si>
-  <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
-4. Enter First Name (0000)                                                  5. Enter Last Name (1111)                                                  6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678910" as Phone number                      11. Enter SSN (1234)                                                               12. Enter UserName (Test)                                                   13. Enter Testtest12@# as password                               15. Pass same pasword in Confirm 
+4. Enter First Name (0000)                                                  5. Enter Last Name (1111)                                                  6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678910" as Phone number                      11. Enter SSN (1234)                                                               12. Enter UserName (Test12)                                                   13. Enter Testtest12@# as password                               15. Pass same pasword in Confirm 
 16. Click on REGISTER button
 17. Capture the requied field message's
 18. Verify the required messages
 19. Close browser</t>
   </si>
   <si>
-    <t xml:space="preserve">Filled "Phone number" input box with alpha numeric character and rest of the fields filled up with valid data   </t>
+    <t xml:space="preserve">Filled "phone no" input box with alpha numeric character and rest of the fields filled up with valid data   </t>
   </si>
   <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
-4. Enter First Name (0000)                                                  5. Enter Last Name (1111)                                                  6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "abc0125678" as Phone number                      11. Enter SSN (1234)                                                               12. Enter UserName (Test)                                                   13. Enter Testtest12@# as password                               15. Pass same pasword in Confirm 
+4. Enter First Name (Test)                                                  5. Enter Last Name (test)                                                    6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "abc0125678" as Phone number                      11. Enter SSN (123)                                                               12. Enter UserName (Test125)                                                   13. Enter Testtest12@# as password                               15. Pass same pasword in Confirm 
 16. Click on REGISTER button
 17. Capture the requied field message's
 18. Verify the required messages
 19. Close browser</t>
   </si>
   <si>
-    <t>Enter alphabet as Social Security Number (SSN) and filled all the required field with valid credentials and click on Register</t>
-  </si>
-  <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
-4. Enter First Name (0000)                                                  5. Enter Last Name (1111)                                                  6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678810" as Phone number                      11. Enter SSN (abc)                                                               12. Enter UserName (Test)                                                   13. Enter Testtest12@# as password                               15. Pass same pasword in Confirm 
+4. Enter First Name (Test)                                                  5. Enter Last Name (test)                                                    6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678810" as Phone number                      11. Enter SSN (abc123)                                                               12. Enter UserName (Test124)                                                   13. Enter Testtest12@# as password                               15. Pass same pasword in Confirm 
 16. Click on REGISTER button</t>
   </si>
   <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
-4. Enter First Name (0000)                                                  5. Enter Last Name (1111)                                                  6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678810" as Phone number                      11. Enter SSN (abc)                                                               12. Enter UserName (Test)                                                   13. Enter 0 as password                                                    15. Pass same pasword in Confirm 
+4. Enter First Name (0000)                                                  5. Enter Last Name (1111)                                                  6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678810" as Phone number                      11. Enter SSN (abc)                                                               12. Enter UserName (Test128)                                                   13. Enter 0 as password                                                    15. Pass same pasword in Confirm 
 16. Click on REGISTER button
 17. Capture the title of the registration page
 18. Verify the title 
@@ -201,16 +206,75 @@
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
-4. Enter First Name (0000)                                                  5. Enter Last Name (1111)                                                  6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678810" as Phone number                      11. Enter SSN (abc)                                                               12. Enter UserName (Test)                                                   13. Enter Testtest123## as password                                                    15. Use the same password-"Testtest123##" in Confirm passwod
+4. Enter First Name (Test)                                                  5. Enter Last Name (test)                                                    6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678810" as Phone number                      11. Enter SSN (abc)                                                               12. Enter UserName (Test131)                                                   13. Enter Testtest123### as password                                                    15. Use the same password-"Testtest123" in Confirm passwod
 16. Click on REGISTER button
 17. Capture password did not matched message
 18. Verify the alert 
 19. Close browser</t>
   </si>
   <si>
+    <t>Reg-10</t>
+  </si>
+  <si>
+    <t>Try to login with valid input</t>
+  </si>
+  <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
-3. Click on Register Link                                                        4. Capture and verify</t>
+3. Click on Register Link                                                        
+4. Enter First Name (Test)                                                  5. Enter Last Name (test)                                                    6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678810" as Phone number                      11. Enter SSN (1234)                                                               12. Enter UserName (Test136)                                                   13. Enter Testtest12### as password                               15. Pass same pasword in Confirm 
+16. Click on REGISTER button                                              17. Capture the Username                                                  18. Verify the Username                                                      19. Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every input fileds should be provide required message. </t>
+  </si>
+  <si>
+    <t>Yes, all the required fields appear required message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be appear "First Name field is required." </t>
+  </si>
+  <si>
+    <t>As per expectation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be appear "Last Name field is required." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to Register and shouldn't accept numeric values as First Name and Last Name </t>
+  </si>
+  <si>
+    <t>Accept and successfully register</t>
+  </si>
+  <si>
+    <t>Shouldn't accept alpha-numeric value as Phone number and Failed to Register</t>
+  </si>
+  <si>
+    <t>Successfully Registered</t>
+  </si>
+  <si>
+    <t>Shouldn't accept alphabet as SSN and Failed to Register</t>
+  </si>
+  <si>
+    <t>Doesn't matched with criteria</t>
+  </si>
+  <si>
+    <t>Should be appear "Password did not matched" message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be displayed </t>
+  </si>
+  <si>
+    <t>Found as per expectation</t>
+  </si>
+  <si>
+    <t>Accept and successfully registed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be successfully registed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful </t>
   </si>
 </sst>
 </file>
@@ -294,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -382,11 +446,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,9 +472,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -419,31 +493,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,16 +812,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="29" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29" style="14" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
@@ -750,50 +831,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <f>COUNTA(G8:G16)</f>
         <v>9</v>
       </c>
@@ -825,16 +906,20 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -842,16 +927,20 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -859,16 +948,20 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="18" t="s">
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -876,16 +969,20 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -893,16 +990,20 @@
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -910,16 +1011,20 @@
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -927,16 +1032,20 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -944,16 +1053,20 @@
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="18" t="s">
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -961,16 +1074,41 @@
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="18" t="s">
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>16</v>
       </c>
     </row>

--- a/ParaBank-selenium automation with python.xlsx
+++ b/ParaBank-selenium automation with python.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>Expected Result</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Total Executed</t>
-  </si>
-  <si>
-    <t>Keep all the fields blanks &amp; Click on Register button</t>
   </si>
   <si>
     <t>Try to register using 1 digit password</t>
@@ -216,9 +213,6 @@
     <t>Reg-10</t>
   </si>
   <si>
-    <t>Try to login with valid input</t>
-  </si>
-  <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
@@ -253,9 +247,6 @@
     <t>Successfully Registered</t>
   </si>
   <si>
-    <t>Shouldn't accept alphabet as SSN and Failed to Register</t>
-  </si>
-  <si>
     <t>Doesn't matched with criteria</t>
   </si>
   <si>
@@ -275,6 +266,48 @@
   </si>
   <si>
     <t xml:space="preserve">Successful </t>
+  </si>
+  <si>
+    <t>Keep all the field blanks &amp; Click on Register button</t>
+  </si>
+  <si>
+    <t>Validated by "First name is required."</t>
+  </si>
+  <si>
+    <t>Validation with "Last name is required."</t>
+  </si>
+  <si>
+    <t>1. Validation with "First name is required."                                                            2. Validation with "Last name is required."</t>
+  </si>
+  <si>
+    <t>1. Validated by the title of Register page     2. Validation with all the required field messages                                                                   3. Assertion with URL of Resgitration page</t>
+  </si>
+  <si>
+    <t>Assertion with Register page title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Asserted by SSN matching format                2. Reister page title  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shouldn't accept alphabet as SSN and Failed to Register </t>
+  </si>
+  <si>
+    <t>Shouldn't accept just 1 digit as password and Failed to Register</t>
+  </si>
+  <si>
+    <t>1. Validation with Register page title and URL of Register page                                              2. Alert message</t>
+  </si>
+  <si>
+    <t>Validated by "Passwords did not match." message</t>
+  </si>
+  <si>
+    <t>Try to register with valid input</t>
+  </si>
+  <si>
+    <t>1. Validation with dashboard page title after register                                                             2. Validated by the URL                                         3. Validation with UserName</t>
+  </si>
+  <si>
+    <t>Validated by "Signing up is easy!"</t>
   </si>
 </sst>
 </file>
@@ -514,18 +547,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +858,7 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="29" style="14" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
@@ -837,10 +872,10 @@
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -861,7 +896,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>17</v>
@@ -907,17 +942,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>16</v>
@@ -928,17 +965,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>16</v>
@@ -949,17 +988,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>16</v>
@@ -970,17 +1011,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>17</v>
@@ -991,17 +1034,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>17</v>
@@ -1012,17 +1057,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>17</v>
@@ -1033,17 +1080,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>17</v>
@@ -1054,17 +1103,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>16</v>
@@ -1075,17 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>16</v>
@@ -1093,20 +1146,22 @@
     </row>
     <row r="17" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>63</v>
+      <c r="D17" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>16</v>

--- a/ParaBank-selenium automation with python.xlsx
+++ b/ParaBank-selenium automation with python.xlsx
@@ -41,9 +41,6 @@
     <t>Steps</t>
   </si>
   <si>
-    <t xml:space="preserve">Validation Point </t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>Product Name</t>
-  </si>
-  <si>
-    <t>ParaBank</t>
   </si>
   <si>
     <t>Feature</t>
@@ -309,12 +303,18 @@
   <si>
     <t>Validated by "Signing up is easy!"</t>
   </si>
+  <si>
+    <t>ParaBank-Experience the difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asserts/Validation Point </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +339,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -493,10 +509,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,9 +537,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -545,25 +559,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -850,13 +869,13 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="29" style="14" customWidth="1"/>
+    <col min="2" max="2" width="29" style="13" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
@@ -865,53 +884,55 @@
     <col min="9" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15">
+        <f>COUNTIF(G8:G100,"Passed")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="E3" s="15">
+        <f>COUNTIF(G9:G100,"Failed")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="17">
-        <f>COUNTA(G8:G16)</f>
-        <v>9</v>
+      <c r="E4" s="23">
+        <f>SUM(E2:E3)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>0</v>
@@ -934,244 +955,247 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/ParaBank-selenium automation with python.xlsx
+++ b/ParaBank-selenium automation with python.xlsx
@@ -2,29 +2,67 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\SQA Concepts\Selenium with python\Projects\Para Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>ParaBank-Experience the difference</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Feature URI</t>
+  </si>
+  <si>
+    <t>https://parabank.parasoft.com/parabank/register.htm</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Total Executed</t>
+  </si>
+  <si>
+    <t>TC NO.</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asserts/Validation Point </t>
+  </si>
   <si>
     <t>Expected Result</t>
   </si>
@@ -32,79 +70,13 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>TC NO.</t>
-  </si>
-  <si>
-    <t>Test Cases</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Reg-01</t>
   </si>
   <si>
-    <t>Reg-02</t>
-  </si>
-  <si>
-    <t>Reg-03</t>
-  </si>
-  <si>
-    <t>Reg-04</t>
-  </si>
-  <si>
-    <t>Reg-05</t>
-  </si>
-  <si>
-    <t>Reg-06</t>
-  </si>
-  <si>
-    <t>Reg-07</t>
-  </si>
-  <si>
-    <t>Reg-08</t>
-  </si>
-  <si>
-    <t>Reg-09</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Feature URI</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Total Executed</t>
-  </si>
-  <si>
-    <t>Try to register using 1 digit password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try to register with mismatching password and confirm password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the visibility of the sentence "Signing up is easy!" </t>
-  </si>
-  <si>
-    <t>https://parabank.parasoft.com/parabank/register.htm</t>
+    <t>Keep all the field blanks &amp; Click on Register button</t>
   </si>
   <si>
     <t>1. Open Web Browser(Chrome)
@@ -117,6 +89,21 @@
 8. Close browser</t>
   </si>
   <si>
+    <t>1. Validated by the title of Register page     2. Validation with all the required field messages                                                                   3. Assertion with URL of Resgitration page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every input fileds should be provide required message. </t>
+  </si>
+  <si>
+    <t>Yes, all the required fields appear required message.</t>
+  </si>
+  <si>
+    <t>Reg-02</t>
+  </si>
+  <si>
+    <t>Keep "First Name" field as blank &amp; FillUp rest of the required field and click on Register</t>
+  </si>
+  <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
@@ -127,18 +114,16 @@
 19. Close browser</t>
   </si>
   <si>
-    <t>Keep "First Name" field as blank &amp; FillUp rest of the required field and click on Register</t>
-  </si>
-  <si>
-    <t>Set numeric value in First Name &amp; Last Name fields and rest of the fields filled with  valid credential after that click on register</t>
-  </si>
-  <si>
-    <t>Enter alphabet as Social Security Number (SSN) and filled all the required field with valid credentials and click on Register</t>
-  </si>
-  <si>
-    <t>1. Open Web Browser(Chrome)
-2. Launch URL (https://parabank.parasoft.com/)    
-3. Click on Register Link                                                        4. Capture and verify</t>
+    <t>Validated by "First name is required."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be appear "First Name field is required." </t>
+  </si>
+  <si>
+    <t>As per expectation</t>
+  </si>
+  <si>
+    <t>Reg-03</t>
   </si>
   <si>
     <t>Filled Up all the fields without "Last Name" Field and click on Register</t>
@@ -154,6 +139,18 @@
 19. Close browser</t>
   </si>
   <si>
+    <t>Validation with "Last name is required."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be appear "Last Name field is required." </t>
+  </si>
+  <si>
+    <t>Reg-04</t>
+  </si>
+  <si>
+    <t>Set numeric value in First Name &amp; Last Name fields and rest of the fields filled with  valid credential after that click on register</t>
+  </si>
+  <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
@@ -164,6 +161,18 @@
 19. Close browser</t>
   </si>
   <si>
+    <t>1. Validation with "First name is required."                                                            2. Validation with "Last name is required."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to Register and shouldn't accept numeric values as First Name and Last Name </t>
+  </si>
+  <si>
+    <t>Accept and successfully register</t>
+  </si>
+  <si>
+    <t>Reg-05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filled "phone no" input box with alpha numeric character and rest of the fields filled up with valid data   </t>
   </si>
   <si>
@@ -177,11 +186,41 @@
 19. Close browser</t>
   </si>
   <si>
+    <t>Assertion with Register page title</t>
+  </si>
+  <si>
+    <t>Shouldn't accept alpha-numeric value as Phone number and Failed to Register</t>
+  </si>
+  <si>
+    <t>Successfully Registered</t>
+  </si>
+  <si>
+    <t>Reg-06</t>
+  </si>
+  <si>
+    <t>Enter alphabet as Social Security Number (SSN) and filled all the required field with valid credentials and click on Register</t>
+  </si>
+  <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
 4. Enter First Name (Test)                                                  5. Enter Last Name (test)                                                    6. Enter Address (Mirpur-12)                                              7. Enter "Dhaka" as City Name                                               8. Filled the State field with "Dhaka"                             9. Enter Zip Code (1300)                                                        10. Use "0125678810" as Phone number                      11. Enter SSN (abc123)                                                               12. Enter UserName (Test124)                                                   13. Enter Testtest12@# as password                               15. Pass same pasword in Confirm 
 16. Click on REGISTER button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Asserted by SSN matching format                2. Reister page title  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shouldn't accept alphabet as SSN and Failed to Register </t>
+  </si>
+  <si>
+    <t>Accept and successfully registed</t>
+  </si>
+  <si>
+    <t>Reg-07</t>
+  </si>
+  <si>
+    <t>Try to register using 1 digit password</t>
   </si>
   <si>
     <t>1. Open Web Browser(Chrome)
@@ -194,6 +233,21 @@
 19. Close browser</t>
   </si>
   <si>
+    <t>1. Validation with Register page title and URL of Register page                                              2. Alert message</t>
+  </si>
+  <si>
+    <t>Shouldn't accept just 1 digit as password and Failed to Register</t>
+  </si>
+  <si>
+    <t>Doesn't matched with criteria</t>
+  </si>
+  <si>
+    <t>Reg-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to register with mismatching password and confirm password </t>
+  </si>
+  <si>
     <t>1. Open Web Browser(Chrome)
 2. Launch URL (https://parabank.parasoft.com/)    
 3. Click on Register Link                                                        
@@ -204,7 +258,36 @@
 19. Close browser</t>
   </si>
   <si>
+    <t>Validated by "Passwords did not match." message</t>
+  </si>
+  <si>
+    <t>Should be appear "Password did not matched" message</t>
+  </si>
+  <si>
+    <t>Reg-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the visibility of the sentence "Signing up is easy!" </t>
+  </si>
+  <si>
+    <t>1. Open Web Browser(Chrome)
+2. Launch URL (https://parabank.parasoft.com/)    
+3. Click on Register Link                                                        4. Capture and verify</t>
+  </si>
+  <si>
+    <t>Validated by "Signing up is easy!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be displayed </t>
+  </si>
+  <si>
+    <t>Found as per expectation</t>
+  </si>
+  <si>
     <t>Reg-10</t>
+  </si>
+  <si>
+    <t>Try to register with valid input</t>
   </si>
   <si>
     <t>1. Open Web Browser(Chrome)
@@ -214,46 +297,7 @@
 16. Click on REGISTER button                                              17. Capture the Username                                                  18. Verify the Username                                                      19. Logout</t>
   </si>
   <si>
-    <t xml:space="preserve">Every input fileds should be provide required message. </t>
-  </si>
-  <si>
-    <t>Yes, all the required fields appear required message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should be appear "First Name field is required." </t>
-  </si>
-  <si>
-    <t>As per expectation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should be appear "Last Name field is required." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unable to Register and shouldn't accept numeric values as First Name and Last Name </t>
-  </si>
-  <si>
-    <t>Accept and successfully register</t>
-  </si>
-  <si>
-    <t>Shouldn't accept alpha-numeric value as Phone number and Failed to Register</t>
-  </si>
-  <si>
-    <t>Successfully Registered</t>
-  </si>
-  <si>
-    <t>Doesn't matched with criteria</t>
-  </si>
-  <si>
-    <t>Should be appear "Password did not matched" message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should be displayed </t>
-  </si>
-  <si>
-    <t>Found as per expectation</t>
-  </si>
-  <si>
-    <t>Accept and successfully registed</t>
+    <t>1. Validation with dashboard page title after register                                                             2. Validated by the URL                                         3. Validation with UserName</t>
   </si>
   <si>
     <t xml:space="preserve">Should be successfully registed </t>
@@ -262,59 +306,68 @@
     <t xml:space="preserve">Successful </t>
   </si>
   <si>
-    <t>Keep all the field blanks &amp; Click on Register button</t>
-  </si>
-  <si>
-    <t>Validated by "First name is required."</t>
-  </si>
-  <si>
-    <t>Validation with "Last name is required."</t>
-  </si>
-  <si>
-    <t>1. Validation with "First name is required."                                                            2. Validation with "Last name is required."</t>
-  </si>
-  <si>
-    <t>1. Validated by the title of Register page     2. Validation with all the required field messages                                                                   3. Assertion with URL of Resgitration page</t>
-  </si>
-  <si>
-    <t>Assertion with Register page title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Asserted by SSN matching format                2. Reister page title  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shouldn't accept alphabet as SSN and Failed to Register </t>
-  </si>
-  <si>
-    <t>Shouldn't accept just 1 digit as password and Failed to Register</t>
-  </si>
-  <si>
-    <t>1. Validation with Register page title and URL of Register page                                              2. Alert message</t>
-  </si>
-  <si>
-    <t>Validated by "Passwords did not match." message</t>
-  </si>
-  <si>
-    <t>Try to register with valid input</t>
-  </si>
-  <si>
-    <t>1. Validation with dashboard page title after register                                                             2. Validated by the URL                                         3. Validation with UserName</t>
-  </si>
-  <si>
-    <t>Validated by "Signing up is easy!"</t>
-  </si>
-  <si>
-    <t>ParaBank-Experience the difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asserts/Validation Point </t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Data Driven Test</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Please enter a username and password.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>#12344</t>
+  </si>
+  <si>
+    <t>Invalid username</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>!@@@@</t>
+  </si>
+  <si>
+    <t>Accounts Overview</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Test16</t>
+  </si>
+  <si>
+    <t>Testtest12###</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,8 +415,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +467,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60B212"/>
+        <bgColor rgb="FF60B212"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -444,10 +529,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -463,10 +546,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -476,7 +557,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -484,21 +580,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -511,74 +592,98 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -587,11 +692,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF6600"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -868,14 +968,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="29" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29" style="12" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
@@ -884,308 +984,308 @@
     <col min="9" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="21"/>
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>18</v>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="15">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14">
         <f>COUNTIF(G8:G100,"Passed")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14">
         <f>COUNTIF(G9:G100,"Failed")</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20">
         <f>SUM(E2:E3)</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="G17" s="13" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="225" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="285" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1196,6 +1296,166 @@
     <hyperlink ref="C1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="22">
+        <v>134</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>-123</v>
+      </c>
+      <c r="B5" s="22">
+        <v>123</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/ParaBank-selenium automation with python.xlsx
+++ b/ParaBank-selenium automation with python.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Services" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="145">
   <si>
     <t>Product Name</t>
   </si>
@@ -312,9 +313,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -342,9 +340,6 @@
     <t>#12344</t>
   </si>
   <si>
-    <t>Invalid username</t>
-  </si>
-  <si>
     <t>#####</t>
   </si>
   <si>
@@ -361,13 +356,172 @@
   </si>
   <si>
     <t>Testtest12###</t>
+  </si>
+  <si>
+    <t>TC No</t>
+  </si>
+  <si>
+    <t>TC-Log-01</t>
+  </si>
+  <si>
+    <t>TC-Log-02</t>
+  </si>
+  <si>
+    <t>TC-Log-03</t>
+  </si>
+  <si>
+    <t>TC-Log-04</t>
+  </si>
+  <si>
+    <t>TC-Log-05</t>
+  </si>
+  <si>
+    <t>TC-Log-06</t>
+  </si>
+  <si>
+    <t>Login fields validation with null username and null password</t>
+  </si>
+  <si>
+    <t>Try to loging with valid username and wrong password</t>
+  </si>
+  <si>
+    <t>Input fields validation with invalid username and valid password</t>
+  </si>
+  <si>
+    <t>Try to login with invalid username and wrong password</t>
+  </si>
+  <si>
+    <t>Try to login with invalid username and invalid password</t>
+  </si>
+  <si>
+    <t>Login with valid credential</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ParaBank</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Faysal Sarder</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>12-12-2022 To 13-12-2022</t>
+  </si>
+  <si>
+    <t>Compare with (Error!)</t>
+  </si>
+  <si>
+    <t>TC-Ser-01</t>
+  </si>
+  <si>
+    <t>TC-Ser-02</t>
+  </si>
+  <si>
+    <t>TC-Ser-03</t>
+  </si>
+  <si>
+    <t>TC-Ser-04</t>
+  </si>
+  <si>
+    <t>TC-Ser-05</t>
+  </si>
+  <si>
+    <t>TC-Ser-06</t>
+  </si>
+  <si>
+    <t>TC-Ser-07</t>
+  </si>
+  <si>
+    <t>Count number of rows &amp; columns in Available Bookstore SOAP services table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indentify the position (row &amp; column number) of the sentence "(WS-Security Signature)" </t>
+  </si>
+  <si>
+    <t>Count number of rows are available in Bookstore services table</t>
+  </si>
+  <si>
+    <t>Identify the position of "submitOrder" method in Bookstore services</t>
+  </si>
+  <si>
+    <t>Count number of rows &amp; columns in Available ParaBank services table</t>
+  </si>
+  <si>
+    <t>Identify the number of "string" parameter are available in Parameters column of Parabank services table</t>
+  </si>
+  <si>
+    <t>Identify the number of "int" parameter are available in Parameters column of Bookstore services table</t>
+  </si>
+  <si>
+    <t>(row, column)==(4,1)</t>
+  </si>
+  <si>
+    <t>(row, column)==(7,3)</t>
+  </si>
+  <si>
+    <t>rows--26,                                  columns -- 3</t>
+  </si>
+  <si>
+    <t>rows - 6,                              column - 2</t>
+  </si>
+  <si>
+    <t>row - 8</t>
+  </si>
+  <si>
+    <t>rows - 6,                              column - 3</t>
+  </si>
+  <si>
+    <t>row - 9</t>
+  </si>
+  <si>
+    <t>rows--26,                                  columns -- 4</t>
+  </si>
+  <si>
+    <t>13-12-2022 To 13-12-2022</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>https://parabank.parasoft.com/parabank/services.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome browser                                                                                                            2. Launch the URL(https://parabank.parasoft.com/parabank/index.htm)   3. Click on Services from Menu                                                                                       4.  Capture Available Bookstore SOAP services Table                                           5. Indentify the position of the sentence (WS-Security Signature)                                                                    6. Quit browser                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome browser                                                                                                            2. Launch the URL(https://parabank.parasoft.com/parabank/index.htm)   3. Click on Services from Menu                                                                                       4.  Capture Bookstore services table                                                                               5. Count number of rows                                                                                                 6. Quit browser                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome browser                                                                                                            2. Launch the URL(https://parabank.parasoft.com/parabank/index.htm)   3. Click on Services from Menu                                                                                       4.  Capture Bookstore services table                                                                               5. Idendify the position of submitOrder methods                                                                                                                                                                                         6. Quit browser                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome browser                                                                                                            2. Launch the URL(https://parabank.parasoft.com/parabank/index.htm)   3. Click on Services from Menu                                                                                       4.  Capture ParaBank services table                                                                               5. Count total number of rows and columns                                                                                                                                                                                          6. Quit browser                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome browser                                                                                                            2. Launch the URL(https://parabank.parasoft.com/parabank/index.htm)   3. Click on Services from Menu                                                                                       4.  Capture Available Bookstore SOAP services Table                                           5. Count total number of rows and columns                                                                         6. Quit browser                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome browser                                                                                                            2. Launch the URL(https://parabank.parasoft.com/parabank/index.htm)   3. Click on Services from Menu                                                                                       4.  Capture Bookstore services table                                                                               5. Count total number of "int" parameters are available in Parameters columns                                                                                                                                                                                        6. Quit browser                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome browser                                                                                                            2. Launch the URL(https://parabank.parasoft.com/parabank/index.htm)   3. Click on Services from Menu                                                                                       4.  Capture ParaBank services table                                                                               5.  Count total number of "string" parameters are available in Parameters columns                                                                                                                                                                                        6. Quit browser                                                                    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,8 +577,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,8 +667,20 @@
         <bgColor rgb="FF60B212"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -589,12 +777,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,17 +883,107 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,6 +1001,852 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Case Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Login!$J$6:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Login!$K$6:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="260">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="0"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="0"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,10 +2137,10 @@
       <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
@@ -1007,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="14">
-        <f>COUNTIF(G8:G100,"Passed")</f>
+        <f>COUNTIF(G9:G101,"Passed")</f>
         <v>6</v>
       </c>
     </row>
@@ -1022,11 +2168,17 @@
         <v>8</v>
       </c>
       <c r="E3" s="14">
-        <f>COUNTIF(G9:G100,"Failed")</f>
+        <f>COUNTIF(G10:G101,"Failed")</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1035,70 +2187,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="9" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F9" s="23" t="s">
         <v>22</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>5</v>
@@ -1106,19 +2244,19 @@
     </row>
     <row r="10" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>28</v>
@@ -1129,162 +2267,185 @@
     </row>
     <row r="11" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1302,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,9 +2476,15 @@
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>75</v>
       </c>
@@ -1325,81 +2492,113 @@
         <v>76</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="B3" s="22">
         <v>134</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>-123</v>
       </c>
@@ -1407,55 +2606,402 @@
         <v>123</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="D6" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>91</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="65" style="29" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14">
+        <f>COUNTIF(G9:G101,"Passed")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14">
+        <f>COUNTIF(G9:G101,"Failed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20">
+        <f>SUM(E2:E3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="22">
+        <v>9</v>
+      </c>
+      <c r="F12" s="22">
+        <v>9</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="22">
+        <v>15</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>